--- a/8- Modelos de Segundo Parcial/Segundo parcial/Archivos del repo/informacion archivos dat.xlsx
+++ b/8- Modelos de Segundo Parcial/Segundo parcial/Archivos del repo/informacion archivos dat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxi_\Documents\Programación 2\2023\Lunes 1C\Parcial 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTN\Para Git\Programacion 2\8- Modelos de Segundo Parcial\Segundo parcial\Archivos del repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467842C1-E7A3-4C43-AB41-B8C3A2F6EB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7F991D-C9C7-46CF-866B-2C48A048B95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D7BC169C-057D-4B47-BFA4-DE1BB613D173}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7BC169C-057D-4B47-BFA4-DE1BB613D173}"/>
   </bookViews>
   <sheets>
     <sheet name="Restaurantes.dat" sheetId="1" r:id="rId1"/>
@@ -596,7 +596,7 @@
   <dimension ref="B2:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1767,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8760EF35-70AC-42EE-80DF-18E2C6B3431D}">
   <dimension ref="B4:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" activeCellId="1" sqref="B21:H22 B26:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
